--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/m4m-21/variables</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>incentive-vars</t>
+          <t>vocab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/m4m-21/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INCENTIVE Project Variables</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative variables describing ...</t>
+          <t>Vocabulary description</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1214,11 +1214,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -1262,17 +1258,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1313,17 +1309,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:hasVersion</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4645-9442</t>
+          <t>0.1.1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1364,17 +1360,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9719-9161</t>
+          <t>enter date of creation in the form bellow</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1415,17 +1411,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9346-0190</t>
+          <t>2022-06-04T19:40:22+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1466,19 +1462,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-8954-0470</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1517,38 +1505,114 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-8888-635X</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1568,19 +1632,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-1352-9213</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1598,7 +1654,11 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -1619,19 +1679,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-6796-6780</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1649,7 +1701,11 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
@@ -1670,19 +1726,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9432-4297</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1700,7 +1748,11 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1721,19 +1773,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-5914-3554</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1751,7 +1795,11 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1772,19 +1820,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5323-3180</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1802,7 +1842,11 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -1823,19 +1867,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1874,19 +1910,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.1.1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1925,19 +1953,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dct:created</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2021-08-23T16:13+00:00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1976,19 +1996,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dct:modified</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2022-06-04T11:26:36+00:00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -2027,7 +2039,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
+          <t>vocab:1009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2070,114 +2082,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2197,21 +2125,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive-vars:1000</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>levels of IgG subclasses to Flu antigens</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2227,11 +2147,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -2252,81 +2168,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive-vars:1001</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>IgG1-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-1against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2347,27 +2211,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive-vars:1002</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>IgG2-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2378,18 +2230,10 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2410,27 +2254,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive-vars:1003</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>IgG3-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2441,18 +2273,10 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2473,27 +2297,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive-vars:1004</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>IgG4-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2504,18 +2316,10 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -2536,21 +2340,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive-vars:1005</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Surface Antigens-FC</t>
-        </is>
-      </c>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>level of surface antigenexpression</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2563,11 +2359,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2591,27 +2383,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive-vars:1006</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CD3</t>
-        </is>
-      </c>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>level of CD3 expression</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Surface Antigens-FC</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2622,11 +2402,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2650,21 +2426,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>incentive-vars:1007</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Cytokines-FC</t>
-        </is>
-      </c>
+          <t>vocab:1018</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>level of cytokine expreesion/secretion</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2677,11 +2445,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2705,27 +2469,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive-vars:1008</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>IFNg</t>
-        </is>
-      </c>
+          <t>vocab:1019</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>level of IFNg expression/secretion</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Cytokines-FC</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2736,11 +2488,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2764,21 +2512,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive-vars:1009</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Chemokines-FC</t>
-        </is>
-      </c>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>level of chemokine expression</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2791,11 +2531,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2819,7 +2555,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>incentive-vars:1010</t>
+          <t>vocab:1021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2862,7 +2598,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>incentive-vars:1011</t>
+          <t>vocab:1022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2905,7 +2641,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>incentive-vars:1012</t>
+          <t>vocab:1023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2948,7 +2684,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>incentive-vars:1013</t>
+          <t>vocab:1024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2991,7 +2727,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>incentive-vars:1014</t>
+          <t>vocab:1025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -3034,7 +2770,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>incentive-vars:1015</t>
+          <t>vocab:1026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -3077,7 +2813,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>incentive-vars:1016</t>
+          <t>vocab:1027</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -3120,7 +2856,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>incentive-vars:1017</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -3163,7 +2899,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>incentive-vars:1018</t>
+          <t>vocab:1029</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -3206,7 +2942,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>incentive-vars:1019</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -3249,7 +2985,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>incentive-vars:1020</t>
+          <t>vocab:1031</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -3292,7 +3028,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>incentive-vars:1021</t>
+          <t>vocab:1032</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3335,7 +3071,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>incentive-vars:1022</t>
+          <t>vocab:1033</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3378,7 +3114,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>incentive-vars:1023</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -3418,479 +3154,6 @@
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>incentive-vars:1024</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>incentive-vars:1025</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>incentive-vars:1026</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>incentive-vars:1027</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>incentive-vars:1028</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>incentive-vars:1029</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>incentive-vars:1030</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>incentive-vars:1031</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>incentive-vars:1032</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>incentive-vars:1033</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>incentive-vars:1034</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m21/variables</t>
+          <t>http://purl.org/m4m21/subjects</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m21/variables/</t>
+          <t>http://purl.org/m4m21/subjects/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-05T08:21:08+00:00</t>
+          <t>2022-06-05T08:18:49+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1633,6 +1633,210 @@
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Test Top Subject</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Test Subject Alternative Label</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Test Subject Definition</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Test Narrow Subject</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Test Top Subject</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Test Top Subject 2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Test Narrow Subject 2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Test Top Subject 2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m21/subjects</t>
+          <t>http://purl.org/m4m21/variables</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m21/subjects/</t>
+          <t>http://purl.org/m4m21/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-05T08:18:49+00:00</t>
+          <t>2022-06-05T08:36:30+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1641,19 +1641,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Test Top Subject</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Test Subject Alternative Label</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Test Subject Definition</t>
-        </is>
-      </c>
+          <t>new top variable</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1696,7 +1688,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Test Narrow Subject</t>
+          <t>new narrow variable</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1704,7 +1696,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Test Top Subject</t>
+          <t>new top variable</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1739,104 +1731,6 @@
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Test Top Subject 2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Test Narrow Subject 2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Test Top Subject 2</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1309,12 +1309,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.1.1</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>enter date of creation in the form bellow</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1411,12 +1411,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-05T08:36:30+00:00</t>
+          <t>2022-06-11T18:35:01+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,8 @@
       <c r="AI1" t="inlineStr"/>
       <c r="AJ1" t="inlineStr"/>
       <c r="AK1" t="inlineStr"/>
+      <c r="AL1" t="inlineStr"/>
+      <c r="AM1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +516,8 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -569,6 +573,8 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,6 +630,8 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -679,6 +687,8 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +744,8 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -789,6 +801,8 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -846,6 +860,8 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -901,6 +917,8 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -956,6 +974,8 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1011,6 +1031,8 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1054,6 +1076,8 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1105,6 +1129,8 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1156,6 +1182,8 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1207,6 +1235,8 @@
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1254,6 +1284,8 @@
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1305,6 +1337,8 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1356,6 +1390,8 @@
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1407,6 +1443,8 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1416,7 +1454,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T18:35:01+00:00</t>
+          <t>2022-06-23T15:16:00+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1458,6 +1496,8 @@
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1501,6 +1541,8 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1545,80 +1587,84 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>iop:hasProperty</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>iop:hasMatrix</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>puv:statistic(separator=",")</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>puv:uom(separator=",")</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -1632,6 +1678,8 @@
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1641,7 +1689,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>new top variable</t>
+          <t>performance of feature</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1662,9 +1710,21 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -1679,6 +1739,8 @@
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1688,7 +1750,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>new narrow variable</t>
+          <t>pre-surprise performance of key feature</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1696,7 +1758,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>new top variable</t>
+          <t>performance of feature</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1713,9 +1775,21 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -1730,6 +1804,353 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>surprise performance of surprise feature</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>performance of feature</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>post-surprise performance of key feature</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>performance of feature</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>post-surprise performance of surprise feature</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>performance of feature</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>spectral power</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Spectral power of the signal measured from the data.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/topics/engineering/power-spectrum</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/255586005</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>http://bioontology.org/ontologies/BiomedicalResourceOntology.owl#Fourier_Transform</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>0000-0001-6361-2571</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>inter-trial coherence</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inter-trial coherence between various trials (epochs) across a measurement. </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/24360131/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/255586005</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>0000-0001-6361-2571</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
